--- a/arsip/ahp-simulasi-3.xlsx
+++ b/arsip/ahp-simulasi-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6900"/>
+    <workbookView windowWidth="20490" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>1. Comparison Matrix</t>
   </si>
@@ -798,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -807,13 +807,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -824,6 +825,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1178,7 +1182,7 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1200,7 +1204,7 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="9">
         <v>3</v>
       </c>
     </row>
@@ -1222,7 +1226,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1241,16 +1245,16 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <f>1/D5</f>
         <v>5</v>
       </c>
@@ -1259,14 +1263,14 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <f>1/3</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <f>1/5</f>
         <v>0.2</v>
       </c>
@@ -1275,31 +1279,31 @@
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <f>SUM(C3:C5)</f>
         <v>4.33333333333333</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <f>SUM(D3:D5)</f>
         <v>1.53333333333333</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <f>SUM(E3:E5)</f>
         <v>9</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="7" t="str">
@@ -1317,101 +1321,101 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="7" t="str">
         <f>B3</f>
         <v>Harga</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="18">
         <f>C3/C$6</f>
         <v>0.230769230769231</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="18">
         <f>D3/D$6</f>
         <v>0.217391304347826</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="18">
         <f>E3/E$6</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="19">
         <f>AVERAGE(C10:E10)</f>
         <v>0.26049795615013</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="7" t="str">
         <f>B4</f>
         <v>Kualitas</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="18">
         <f>C4/C$6</f>
         <v>0.692307692307692</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="18">
         <f>D4/D$6</f>
         <v>0.652173913043478</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="18">
         <f>E4/E$6</f>
         <v>0.555555555555556</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="19">
         <f>AVERAGE(C11:E11)</f>
         <v>0.633345720302242</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="7" t="str">
         <f>B5</f>
         <v>Pengiriman</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="18">
         <f>C5/C$6</f>
         <v>0.0769230769230769</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="18">
         <f>D5/D$6</f>
         <v>0.130434782608696</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="18">
         <f>E5/E$6</f>
         <v>0.111111111111111</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="19">
         <f>AVERAGE(C12:E12)</f>
         <v>0.106156323547628</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="H13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="H14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="4">
         <f>C6*F10+D6*F11+E6*F12</f>
         <v>3.05536149304265</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="H15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
@@ -1423,7 +1427,7 @@
         <f>(B15-H1)/(H1-1)</f>
         <v>0.0276807465213265</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1457,74 +1461,74 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14">
+      <c r="A26" s="15">
         <v>1</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14">
+      <c r="A27" s="15">
         <v>2</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14">
+      <c r="A28" s="15">
         <v>3</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="16">
         <v>0.58</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14">
+      <c r="A29" s="15">
         <v>4</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14">
+      <c r="A30" s="15">
         <v>5</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <v>1.12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14">
+      <c r="A31" s="15">
         <v>6</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="16">
         <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14">
+      <c r="A32" s="15">
         <v>7</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <v>1.32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14">
+      <c r="A33" s="15">
         <v>8</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="16">
         <v>1.41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14">
+      <c r="A34" s="15">
         <v>9</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="16">
         <v>1.45</v>
       </c>
     </row>
@@ -1565,7 +1569,7 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="9">
         <v>3</v>
       </c>
     </row>
@@ -1587,7 +1591,7 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C3">
@@ -1606,16 +1610,16 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <f>1/D5</f>
         <v>0.333333333333333</v>
       </c>
@@ -1624,13 +1628,13 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>3</v>
       </c>
       <c r="E5">
@@ -1638,31 +1642,31 @@
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <f>SUM(C3:C5)</f>
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <f>SUM(D3:D5)</f>
         <v>4.33333333333333</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <f>SUM(E3:E5)</f>
         <v>1.53333333333333</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="7" t="str">
@@ -1680,22 +1684,22 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="7" t="str">
         <f>B3</f>
         <v>Ani</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <f>C3/C$6</f>
         <v>0.111111111111111</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <f>D3/D$6</f>
         <v>0.0769230769230769</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <f>E3/E$6</f>
         <v>0.130434782608696</v>
       </c>
@@ -1707,22 +1711,22 @@
         <f t="shared" ref="G10:G12" si="1">RANK(F10,$F$10:$F$12)</f>
         <v>3</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="7" t="str">
         <f>B4</f>
         <v>Budi</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <f>C4/C$6</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <f>D4/D$6</f>
         <v>0.230769230769231</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <f>E4/E$6</f>
         <v>0.217391304347826</v>
       </c>
@@ -1734,22 +1738,22 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="7" t="str">
         <f>B5</f>
         <v>Charlie</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <f>C5/C$6</f>
         <v>0.555555555555556</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <f>D5/D$6</f>
         <v>0.692307692307692</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <f>E5/E$6</f>
         <v>0.652173913043478</v>
       </c>
@@ -1761,32 +1765,32 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="H13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="H14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="4">
         <f>C6*F10+D6*F11+E6*F12</f>
         <v>3.05536149304265</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="H15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
@@ -1798,7 +1802,7 @@
         <f>(B15-H1)/(H1-1)</f>
         <v>0.0276807465213262</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1832,74 +1836,74 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14">
+      <c r="A26" s="15">
         <v>1</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14">
+      <c r="A27" s="15">
         <v>2</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14">
+      <c r="A28" s="15">
         <v>3</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="16">
         <v>0.58</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14">
+      <c r="A29" s="15">
         <v>4</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14">
+      <c r="A30" s="15">
         <v>5</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <v>1.12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14">
+      <c r="A31" s="15">
         <v>6</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="16">
         <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14">
+      <c r="A32" s="15">
         <v>7</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <v>1.32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14">
+      <c r="A33" s="15">
         <v>8</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="16">
         <v>1.41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14">
+      <c r="A34" s="15">
         <v>9</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="16">
         <v>1.45</v>
       </c>
     </row>
@@ -1916,8 +1920,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1941,6 +1945,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="6">
+        <f>Criteria!H1</f>
         <v>3</v>
       </c>
     </row>
@@ -1962,8 +1967,9 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
+      <c r="B3" s="8" t="str">
+        <f>'C1'!B3</f>
+        <v>Ani</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1974,24 +1980,25 @@
       </c>
       <c r="E3">
         <f>1/C5</f>
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="8" t="str">
+        <f>'C1'!B4</f>
+        <v>Budi</v>
+      </c>
+      <c r="C4" s="9">
         <f>1/3</f>
         <v>0.333333333333333</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <f>1/D5</f>
         <v>0.333333333333333</v>
       </c>
@@ -2000,14 +2007,14 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6">
-        <f>1/3</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="8" t="str">
+        <f>'C1'!B5</f>
+        <v>Charlie</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
         <v>3</v>
       </c>
       <c r="E5">
@@ -2015,31 +2022,31 @@
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <f>SUM(C3:C5)</f>
-        <v>1.66666666666667</v>
-      </c>
-      <c r="D6" s="10">
+        <v>3.33333333333333</v>
+      </c>
+      <c r="D6" s="11">
         <f>SUM(D3:D5)</f>
         <v>7</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <f>SUM(E3:E5)</f>
-        <v>4.33333333333333</v>
-      </c>
-      <c r="H6" s="12"/>
+        <v>1.83333333333333</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="7" t="str">
@@ -2057,113 +2064,113 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="7" t="str">
         <f>B3</f>
         <v>Ani</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <f>C3/C$6</f>
-        <v>0.6</v>
-      </c>
-      <c r="D10" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="14">
         <f>D3/D$6</f>
         <v>0.428571428571429</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <f>E3/E$6</f>
-        <v>0.692307692307692</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="F10">
         <f t="shared" ref="F10:F12" si="0">AVERAGE(C10:E10)</f>
-        <v>0.573626373626374</v>
+        <v>0.333766233766234</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ref="G10:G12" si="1">RANK(F10,$F$10:$F$12)</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="7" t="str">
         <f>B4</f>
         <v>Budi</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <f>C4/C$6</f>
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="13">
+        <v>0.0999999999999999</v>
+      </c>
+      <c r="D11" s="14">
         <f>D4/D$6</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <f>E4/E$6</f>
-        <v>0.0769230769230769</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.13992673992674</v>
+        <v>0.141558441558442</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="7" t="str">
         <f>B5</f>
         <v>Charlie</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <f>C5/C$6</f>
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="14">
         <f>D5/D$6</f>
         <v>0.428571428571429</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <f>E5/E$6</f>
-        <v>0.230769230769231</v>
+        <v>0.545454545454546</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0.286446886446886</v>
+        <v>0.524675324675325</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H12" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="H13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="H14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="4">
         <f>C6*F10+D6*F11+E6*F12</f>
-        <v>3.17680097680098</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="H15" s="12"/>
+        <v>3.06536796536797</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
@@ -2173,9 +2180,9 @@
     <row r="18" spans="2:3">
       <c r="B18" s="4">
         <f>(B15-H1)/(H1-1)</f>
-        <v>0.0884004884004885</v>
-      </c>
-      <c r="C18" s="18" t="s">
+        <v>0.0326839826839831</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2187,11 +2194,11 @@
     <row r="21" spans="2:3">
       <c r="B21" s="4">
         <f>B18/VLOOKUP(H1,A26:B34,2,FALSE())</f>
-        <v>0.152414635173256</v>
+        <v>0.0563516942827295</v>
       </c>
       <c r="C21" t="str">
         <f>IF(B21&lt;0.1,"👍 Konsisten","🚫 Tidak Konsisten")</f>
-        <v>🚫 Tidak Konsisten</v>
+        <v>👍 Konsisten</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -2209,74 +2216,74 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14">
+      <c r="A26" s="15">
         <v>1</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14">
+      <c r="A27" s="15">
         <v>2</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14">
+      <c r="A28" s="15">
         <v>3</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="16">
         <v>0.58</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14">
+      <c r="A29" s="15">
         <v>4</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14">
+      <c r="A30" s="15">
         <v>5</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <v>1.12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14">
+      <c r="A31" s="15">
         <v>6</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="16">
         <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14">
+      <c r="A32" s="15">
         <v>7</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <v>1.32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14">
+      <c r="A33" s="15">
         <v>8</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="16">
         <v>1.41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14">
+      <c r="A34" s="15">
         <v>9</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="16">
         <v>1.45</v>
       </c>
     </row>
@@ -2294,7 +2301,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2318,6 +2325,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="6">
+        <f>Criteria!H1</f>
         <v>3</v>
       </c>
     </row>
@@ -2339,8 +2347,9 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
+      <c r="B3" s="8" t="str">
+        <f>'C1'!B3</f>
+        <v>Ani</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2358,16 +2367,17 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="8" t="str">
+        <f>'C1'!B4</f>
+        <v>Budi</v>
+      </c>
+      <c r="C4" s="9">
         <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <f>1/D5</f>
         <v>0.333333333333333</v>
       </c>
@@ -2376,13 +2386,14 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="8" t="str">
+        <f>'C1'!B5</f>
+        <v>Charlie</v>
+      </c>
+      <c r="C5" s="9">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>3</v>
       </c>
       <c r="E5">
@@ -2390,31 +2401,31 @@
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <f>SUM(C3:C5)</f>
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <f>SUM(D3:D5)</f>
         <v>4.33333333333333</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <f>SUM(E3:E5)</f>
         <v>1.53333333333333</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="7" t="str">
@@ -2432,22 +2443,22 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="7" t="str">
         <f>B3</f>
         <v>Ani</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <f>C3/C$6</f>
         <v>0.111111111111111</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <f>D3/D$6</f>
         <v>0.0769230769230769</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <f>E3/E$6</f>
         <v>0.130434782608696</v>
       </c>
@@ -2459,22 +2470,22 @@
         <f t="shared" ref="G10:G12" si="1">RANK(F10,$F$10:$F$12)</f>
         <v>3</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="7" t="str">
         <f>B4</f>
         <v>Budi</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <f>C4/C$6</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <f>D4/D$6</f>
         <v>0.230769230769231</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <f>E4/E$6</f>
         <v>0.217391304347826</v>
       </c>
@@ -2486,22 +2497,22 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="7" t="str">
         <f>B5</f>
         <v>Charlie</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <f>C5/C$6</f>
         <v>0.555555555555556</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <f>D5/D$6</f>
         <v>0.692307692307692</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <f>E5/E$6</f>
         <v>0.652173913043478</v>
       </c>
@@ -2513,32 +2524,32 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="H13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="H14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="4">
         <f>C6*F10+D6*F11+E6*F12</f>
         <v>3.05536149304265</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="H15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
@@ -2548,9 +2559,9 @@
     <row r="18" spans="2:3">
       <c r="B18" s="4">
         <f>(B15-H1)/(H1-1)</f>
-        <v>0.0276807465213262</v>
-      </c>
-      <c r="C18" s="18" t="s">
+        <v>0.0276807465213249</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2562,7 +2573,7 @@
     <row r="21" spans="2:3">
       <c r="B21" s="4">
         <f>B18/VLOOKUP(H1,A26:B34,2,FALSE())</f>
-        <v>0.0477254250367694</v>
+        <v>0.0477254250367671</v>
       </c>
       <c r="C21" t="str">
         <f>IF(B21&lt;0.1,"👍 Konsisten","🚫 Tidak Konsisten")</f>
@@ -2584,74 +2595,74 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14">
+      <c r="A26" s="15">
         <v>1</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14">
+      <c r="A27" s="15">
         <v>2</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14">
+      <c r="A28" s="15">
         <v>3</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="16">
         <v>0.58</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14">
+      <c r="A29" s="15">
         <v>4</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14">
+      <c r="A30" s="15">
         <v>5</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <v>1.12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14">
+      <c r="A31" s="15">
         <v>6</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="16">
         <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14">
+      <c r="A32" s="15">
         <v>7</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <v>1.32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14">
+      <c r="A33" s="15">
         <v>8</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="16">
         <v>1.41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14">
+      <c r="A34" s="15">
         <v>9</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="16">
         <v>1.45</v>
       </c>
     </row>
@@ -2682,7 +2693,7 @@
       </c>
       <c r="B2">
         <f>(Criteria!F10*'C1'!F10)+(Criteria!F11*'C2'!F10)+(Criteria!F12*'C3'!F10)</f>
-        <v>0.402226479134477</v>
+        <v>0.25031208608296</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2692,7 +2703,7 @@
       </c>
       <c r="B3">
         <f>(Criteria!F10*'C1'!F11)+(Criteria!F11*'C2'!F11)+(Criteria!F12*'C3'!F11)</f>
-        <v>0.18413469236341</v>
+        <v>0.185168123608658</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2702,7 +2713,7 @@
       </c>
       <c r="B4">
         <f>(Criteria!F10*'C1'!F12)+(Criteria!F11*'C2'!F12)+(Criteria!F12*'C3'!F12)</f>
-        <v>0.413638828502114</v>
+        <v>0.564519790308383</v>
       </c>
     </row>
     <row r="5" spans="2:3">
